--- a/doc/대외계_포트정보.xlsx
+++ b/doc/대외계_포트정보.xlsx
@@ -16,45 +16,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t xml:space="preserve">hisocket 254148      1   0  5월 17일      - 19:56 java -Xmx256m -classpath /HIC_APP/daemon/lib/xutil.jar:/HIC_APP/daemon/class ssvr.SendDaemon 9500 150.50.50.51 30022 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   clips 389262      1   0  04:00:00      -  0:00 java dnsock2 13802 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hisocket 426204      1   0  3월 12일      - 12:16 java -classpath /HIC_APP/daemon/lib/xutil.jar:/HIC_APP/daemon/class ssvr.SendDaemon 9120 203.234.213.51 28099 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     sms 430322      1   0  9월 28일      - 12:53 java -jar sjmessage.jar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hisocket 438500      1   0  3월 12일      - 12:28 java -classpath /HIC_APP/daemon/lib/xutil.jar:/HIC_APP/daemon/class ssvr.SendDaemon 9100 150.50.50.51 30032 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hisocket 458918      1   0  5월 17일      -  8:38 java -classpath /HIC_APP/daemon/lib/xutil.jar:/HIC_APP/daemon/class rsvr.ReceiveDaemon 9300 172.20.102.11 9300 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hisocket 471206      1   0  5월 17일      - 15:25 java -Xmx256m -classpath /HIC_APP/daemon/lib/xutil.jar:/HIC_APP/daemon/class ssvr.SendDaemon 9520 203.234.213.51 28100 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   clips 475210      1   0  04:00:00      -  0:00 java dnsock 13801 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hisocket 504028      1   0  6월 16일      -  7:05 java -Xmx256m -classpath /HIC_APP/daemon/lib/xutil.jar:/HIC_APP/daemon/class rsvr.ReceiveDaemon 9800 172.20.101.41 9800 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hisocket 512212      1   0  6월 16일      -  7:02 java -Xmx256m -classpath /HIC_APP/daemon/lib/xutil.jar:/HIC_APP/daemon/class rsvr.ReceiveDaemon 9810 172.20.101.41 9800 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    sms2 516296      1   0  9월 28일      - 10:13 java -jar sjmessage.jar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hisocket 577778      1   0  6월 16일      -  8:04 java -Xmx256m -classpath /HIC_APP/daemon/lib/xutil.jar:/HIC_APP/daemon/class ssvr.SendDaemon 9530 192.168.4.100 50811 </t>
+  </si>
   <si>
     <t xml:space="preserve">hisocket  94304      1   0  6월 16일      - 16:20 java -Xmx256m -classpath /HIC_APP/daemon/lib/xutil.jar:/HIC_APP/daemon/class rsvr.ReceiveDaemon 10800 172.20.101.41 9800 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hisocket 254148      1   0  5월 17일      - 19:56 java -Xmx256m -classpath /HIC_APP/daemon/lib/xutil.jar:/HIC_APP/daemon/class ssvr.SendDaemon 9500 150.50.50.51 30022 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   clips 389262      1   0  04:00:00      -  0:00 java dnsock2 13802 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hisocket 426204      1   0  3월 12일      - 12:16 java -classpath /HIC_APP/daemon/lib/xutil.jar:/HIC_APP/daemon/class ssvr.SendDaemon 9120 203.234.213.51 28099 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     sms 430322      1   0  9월 28일      - 12:53 java -jar sjmessage.jar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hisocket 438500      1   0  3월 12일      - 12:28 java -classpath /HIC_APP/daemon/lib/xutil.jar:/HIC_APP/daemon/class ssvr.SendDaemon 9100 150.50.50.51 30032 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hisocket 458918      1   0  5월 17일      -  8:38 java -classpath /HIC_APP/daemon/lib/xutil.jar:/HIC_APP/daemon/class rsvr.ReceiveDaemon 9300 172.20.102.11 9300 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hisocket 471206      1   0  5월 17일      - 15:25 java -Xmx256m -classpath /HIC_APP/daemon/lib/xutil.jar:/HIC_APP/daemon/class ssvr.SendDaemon 9520 203.234.213.51 28100 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   clips 475210      1   0  04:00:00      -  0:00 java dnsock 13801 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hisocket 504028      1   0  6월 16일      -  7:05 java -Xmx256m -classpath /HIC_APP/daemon/lib/xutil.jar:/HIC_APP/daemon/class rsvr.ReceiveDaemon 9800 172.20.101.41 9800 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hisocket 512212      1   0  6월 16일      -  7:02 java -Xmx256m -classpath /HIC_APP/daemon/lib/xutil.jar:/HIC_APP/daemon/class rsvr.ReceiveDaemon 9810 172.20.101.41 9800 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    sms2 516296      1   0  9월 28일      - 10:13 java -jar sjmessage.jar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hisocket 577778      1   0  6월 16일      -  8:04 java -Xmx256m -classpath /HIC_APP/daemon/lib/xutil.jar:/HIC_APP/daemon/class ssvr.SendDaemon 9530 192.168.4.100 50811 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">rsvr.ReceiveDaemon 10800 172.20.101.41 9800 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssvr.SendDaemon 9500 150.50.50.51 30022 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssvr.SendDaemon 9120 203.234.213.51 28099 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssvr.SendDaemon 9100 150.50.50.51 30032 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsvr.ReceiveDaemon 9300 172.20.102.11 9300 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssvr.SendDaemon 9520 203.234.213.51 28100 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsvr.ReceiveDaemon 9800 172.20.101.41 9800 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsvr.ReceiveDaemon 9810 172.20.101.41 9800 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssvr.SendDaemon 9530 192.168.4.100 50811 </t>
   </si>
 </sst>
 </file>
@@ -398,80 +426,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="A7:N7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="str">
+        <f>IF(ISNUMBER(FIND("rsvr",A1)),MID(A1,FIND("rsvr",A1),LEN(A1)),(IF(ISNUMBER(FIND("ssvr",A1)),MID(A1,FIND("ssvr",A1),LEN(A1)),"")))</f>
+        <v xml:space="preserve">rsvr.ReceiveDaemon 10800 172.20.101.41 9800 </v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="str">
+        <f t="shared" ref="A22:A33" si="0">IF(ISNUMBER(FIND("rsvr",A2)),MID(A2,FIND("rsvr",A2),LEN(A2)),(IF(ISNUMBER(FIND("ssvr",A2)),MID(A2,FIND("ssvr",A2),LEN(A2)),"")))</f>
+        <v xml:space="preserve">ssvr.SendDaemon 9500 150.50.50.51 30022 </v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">ssvr.SendDaemon 9120 203.234.213.51 28099 </v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">ssvr.SendDaemon 9100 150.50.50.51 30032 </v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">rsvr.ReceiveDaemon 9300 172.20.102.11 9300 </v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">ssvr.SendDaemon 9520 203.234.213.51 28100 </v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">rsvr.ReceiveDaemon 9800 172.20.101.41 9800 </v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">rsvr.ReceiveDaemon 9810 172.20.101.41 9800 </v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">ssvr.SendDaemon 9530 192.168.4.100 50811 </v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A41:A53">
+    <sortCondition ref="A41"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
